--- a/data/myUniverData2024.xlsx
+++ b/data/myUniverData2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qarnd/PK.work/GitHub/webScrub/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E05490-1F18-4F46-811E-1E814A9E23FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B364D-86F9-BE4D-A482-D1B644229082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="500" windowWidth="36440" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,8 +954,8 @@
   <dimension ref="A1:AE1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T37" sqref="T37"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1871,7 +1871,10 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="3"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="9">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
       <c r="T22" s="9"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
